--- a/runs_results.xlsx
+++ b/runs_results.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iteso01-my.sharepoint.com/personal/adrian_ramos_iteso_mx/Documents/AdrianRamosDS/Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\OneDrive - ITESO\AdrianRamosDS\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{224E62BB-6093-40AE-97F7-40CBE4EC682D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CCD4DE7-4DB5-4763-90C5-16F36AEA8AE5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1055" yWindow="1055" windowWidth="14400" windowHeight="7495" xr2:uid="{243D83CD-E8DB-4218-B2C9-8A02EDA9EFA9}"/>
+    <workbookView xWindow="1053" yWindow="1053" windowWidth="14400" windowHeight="7493"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>R2</t>
   </si>
@@ -72,48 +70,12 @@
   </si>
   <si>
     <t>Lags</t>
-  </si>
-  <si>
-    <t>fam. Ramos</t>
-  </si>
-  <si>
-    <t>gut perez</t>
-  </si>
-  <si>
-    <t>perez chiquet</t>
-  </si>
-  <si>
-    <t>gonzalez perez</t>
-  </si>
-  <si>
-    <t>monica,rosa,kika,amiga</t>
-  </si>
-  <si>
-    <t>nuñez</t>
-  </si>
-  <si>
-    <t>Sergio, Johnny, Adrián, Arturo</t>
-  </si>
-  <si>
-    <t>fam. Fanny</t>
-  </si>
-  <si>
-    <t>tia susy</t>
-  </si>
-  <si>
-    <t>tio cookie</t>
-  </si>
-  <si>
-    <t>diana,montse,giselle,cecy-elias, ginas, dayis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +143,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -476,23 +438,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DA3423-FD3A-4040-9588-17849EE8C17A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D22" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="3" width="10.90625" style="1"/>
+    <col min="1" max="3" width="10.87890625" style="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="8" width="10.90625" style="1"/>
-    <col min="9" max="9" width="10.90625" style="2"/>
-    <col min="10" max="10" width="10.90625" style="1"/>
+    <col min="5" max="8" width="10.87890625" style="1"/>
+    <col min="9" max="9" width="10.87890625" style="2"/>
+    <col min="10" max="10" width="10.87890625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -524,7 +486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="D2" s="1">
         <v>0.05</v>
       </c>
@@ -538,7 +500,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="D3" s="1">
         <v>0.05</v>
       </c>
@@ -552,7 +514,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="D4" s="1">
         <v>0.05</v>
       </c>
@@ -566,7 +528,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="D5" s="1">
         <v>0.05</v>
       </c>
@@ -580,7 +542,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="D6" s="1">
         <v>0.05</v>
       </c>
@@ -594,7 +556,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>7500</v>
       </c>
@@ -617,7 +579,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>7500</v>
       </c>
@@ -643,7 +605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>7500</v>
       </c>
@@ -666,7 +628,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>7500</v>
       </c>
@@ -692,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="D11" s="1">
         <v>0.05</v>
       </c>
@@ -706,112 +668,44 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1">
-        <f>SUM(B18:B30)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="59" x14ac:dyDescent="0.75">
-      <c r="A24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="59" x14ac:dyDescent="0.75">
-      <c r="A28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A29" s="2"/>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A30" s="2"/>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
